--- a/src/main/resources/file/excel.xlsx
+++ b/src/main/resources/file/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +70,6 @@
     <t>2021-12-16</t>
   </si>
   <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
     <t>Tim Cook</t>
   </si>
   <si>
@@ -128,6 +125,60 @@
   </si>
   <si>
     <t>Tablet M2</t>
+  </si>
+  <si>
+    <t>Nokia 1280</t>
+  </si>
+  <si>
+    <t>This is destroyed</t>
+  </si>
+  <si>
+    <t>2011-08-26</t>
+  </si>
+  <si>
+    <t>2012-08-24</t>
+  </si>
+  <si>
+    <t>Albin Ouschan</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi10</t>
+  </si>
+  <si>
+    <t>This is new product of Xiaomi</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 10</t>
+  </si>
+  <si>
+    <t>Xiami 10</t>
+  </si>
+  <si>
+    <t>2021-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>Tran Dat</t>
+  </si>
+  <si>
+    <t>Xiaomi 10</t>
+  </si>
+  <si>
+    <t>Samsung Z Fold</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
   </si>
 </sst>
 </file>
@@ -750,8 +801,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,20 +1341,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="22.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="12.5555555555556" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="9.22222222222222"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1369,20 +1418,20 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1">
+        <v>44621</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>20216011</v>
@@ -1396,37 +1445,37 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>20216012</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3">
         <v>20216012</v>
@@ -1440,31 +1489,31 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>20216013</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>20216011</v>
@@ -1478,36 +1527,197 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>20216014</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5">
         <v>20216014</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>20216015</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>20216015</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>20216016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <v>20216016</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>20216012</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8">
+        <v>20216014</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>20226014</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9">
+        <v>20216015</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
